--- a/CAD/BOM.xlsx
+++ b/CAD/BOM.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g53bo\Desktop\PROJECTS\University\2020-01-06. GRO-S4\Projet\HexaphobUS\CAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CADDB0C-601B-4B52-BA8B-6705C866CC0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C194ED-9057-4077-B276-83EB876F08B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
   <si>
     <t>---</t>
   </si>
@@ -117,27 +123,18 @@
     <t>./External/Bearing.SLDPRT</t>
   </si>
   <si>
-    <t>Screw (1/2", #2-56)</t>
-  </si>
-  <si>
     <t>Screw (1/2", #4-40)</t>
   </si>
   <si>
     <t>Screw (1/2", #6-32)</t>
   </si>
   <si>
-    <t>Nut (#2-56)</t>
-  </si>
-  <si>
     <t>Nut (#4-40)</t>
   </si>
   <si>
     <t>Nut (#6-32)</t>
   </si>
   <si>
-    <t>Washer (#2-56)</t>
-  </si>
-  <si>
     <t>Washer (#4-40)</t>
   </si>
   <si>
@@ -370,6 +367,24 @@
   </si>
   <si>
     <t>./V1/Hexapod_(Curved).SLDASM</t>
+  </si>
+  <si>
+    <t>Screw (1/2", #8-32)</t>
+  </si>
+  <si>
+    <t>Screw (1/4", #4-40)</t>
+  </si>
+  <si>
+    <t>Screw (3/4", #6-32)</t>
+  </si>
+  <si>
+    <t>Screw (5/8", #6-32)</t>
+  </si>
+  <si>
+    <t>Screw (3/4", #4-40)</t>
+  </si>
+  <si>
+    <t>Screw (1", #4-40)</t>
   </si>
 </sst>
 </file>
@@ -477,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,57 +510,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -719,11 +698,48 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -739,18 +755,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{555A3D26-219B-4197-9A10-F6198C9067CC}" name="Table1" displayName="Table1" ref="A2:I59" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="11">
-  <autoFilter ref="A2:I59" xr:uid="{E0189EBE-EDB1-4B15-A7C5-572DE7DFA16F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{555A3D26-219B-4197-9A10-F6198C9067CC}" name="Table1" displayName="Table1" ref="A2:I128" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10">
+  <autoFilter ref="A2:I128" xr:uid="{E0189EBE-EDB1-4B15-A7C5-572DE7DFA16F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{013D0D6E-055B-4DE3-933E-CF3A7BA7AEEF}" name="Name" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{20E59F0D-63C8-4AE2-8007-0E777CD2BB55}" name="Directory" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{F08BA588-9242-473D-BD4F-27F25AB8458E}" name="./V1/Hexapod_(Curved).SLDASM" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0E49114C-1C89-4297-8D52-6DED00CB57C9}" name="./V1/Hexapod_(Straight).SLDASM" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{2ED82173-D251-4492-B249-E345D46A793F}" name="./V2/Hexapod.SLDASM" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{3A789DFB-86AE-47D5-9556-297D7FFD46C3}" name="./V3/Hexapod_(12_motors).SLDASM" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{C91407D5-2BE6-46DF-8B18-869ADACEE927}" name="./V3/Hexapod_(18_motors).SLDASM" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{9228C675-96EC-4A87-BC12-903FFF2EB22F}" name="./V3/Hexapod_(Hexagonal).SLDASM" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{748CC647-9909-4E94-AAB9-E6372E99D10F}" name="./V3/Hexapod_(Small).SLDASM" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{013D0D6E-055B-4DE3-933E-CF3A7BA7AEEF}" name="Name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{20E59F0D-63C8-4AE2-8007-0E777CD2BB55}" name="Directory" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F08BA588-9242-473D-BD4F-27F25AB8458E}" name="./V1/Hexapod_(Curved).SLDASM" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{0E49114C-1C89-4297-8D52-6DED00CB57C9}" name="./V1/Hexapod_(Straight).SLDASM" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{2ED82173-D251-4492-B249-E345D46A793F}" name="./V2/Hexapod.SLDASM" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{3A789DFB-86AE-47D5-9556-297D7FFD46C3}" name="./V3/Hexapod_(12_motors).SLDASM" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C91407D5-2BE6-46DF-8B18-869ADACEE927}" name="./V3/Hexapod_(18_motors).SLDASM" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{9228C675-96EC-4A87-BC12-903FFF2EB22F}" name="./V3/Hexapod_(Hexagonal).SLDASM" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{748CC647-9909-4E94-AAB9-E6372E99D10F}" name="./V3/Hexapod_(Small).SLDASM" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1019,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1036,16 +1052,16 @@
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
@@ -1055,10 +1071,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -1339,603 +1355,1094 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <f>2*6</f>
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <f>2*6</f>
+        <v>12</v>
+      </c>
+      <c r="E12" s="2">
+        <f>2*6</f>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <f>2*6+4</f>
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <f>2*6+4</f>
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <f>2*6+4</f>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <f>4*2*6+4+4</f>
+        <v>56</v>
+      </c>
+      <c r="D16" s="2">
+        <f>4*2*6+4+4</f>
+        <v>56</v>
+      </c>
+      <c r="E16" s="2">
+        <f>4*2*6+4+4</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <f>2*6</f>
+        <v>12</v>
+      </c>
+      <c r="D19" s="2">
+        <f>2*6</f>
+        <v>12</v>
+      </c>
+      <c r="E19" s="2">
+        <f>2*6</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <f>4+4</f>
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
+        <f>4+4</f>
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <f>4*2*6+2*6+4+4</f>
+        <v>68</v>
+      </c>
+      <c r="D21" s="2">
+        <f>4*2*6+6+2*6+4+4</f>
+        <v>74</v>
+      </c>
+      <c r="E21" s="2">
+        <f>4*2*6+6+2*6+4+4</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <f>4*2*6</f>
+        <v>48</v>
+      </c>
+      <c r="D23" s="2">
+        <f>4*2*6+6</f>
+        <v>54</v>
+      </c>
+      <c r="E23" s="2">
+        <f>4*2*6+6</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="B24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2">
+        <f>2*6</f>
+        <v>12</v>
+      </c>
+      <c r="D27" s="2">
+        <f>2*6</f>
+        <v>12</v>
+      </c>
+      <c r="E27" s="2">
+        <f>2*6</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+      <c r="D28" s="2">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="2">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="C30" s="2">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="2">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="B31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="2">
-        <v>6</v>
-      </c>
-      <c r="D27" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="2">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="2">
-        <v>3</v>
-      </c>
-      <c r="D35" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="5" t="s">
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="C42" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="2">
         <v>6</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D45" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+      <c r="E45" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="2">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+      <c r="C50" s="2">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
+      <c r="B51" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>6</v>
+      </c>
+      <c r="E51" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="2">
+      <c r="B53" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
         <v>6</v>
       </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="5" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" s="5" t="s">
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
+      <c r="B62" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>0</v>
-      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="5"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111" s="5"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B113" s="5"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B115" s="5"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B116" s="5"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B117" s="5"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B118" s="5"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B119" s="5"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B126" s="5"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B127" s="5"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B128" s="5"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B129" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
